--- a/4-Inventory/WG_Kit_Value.xlsx
+++ b/4-Inventory/WG_Kit_Value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\4-Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47964D61-6AF7-4A14-9583-8558BD967D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3562F-65DB-4C72-AC24-6361F0A12169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7677251-B87D-4366-8E9A-A2D4FC8A821C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -149,9 +149,6 @@
     <t>1122-40ml</t>
   </si>
   <si>
-    <t>10-500-26</t>
-  </si>
-  <si>
     <t>02-893-5D</t>
   </si>
   <si>
@@ -162,13 +159,79 @@
   </si>
   <si>
     <t>Total (Per kit)</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>25% Glutaraldhyde</t>
+  </si>
+  <si>
+    <t>Electron Microscopy Sciences</t>
+  </si>
+  <si>
+    <t>Volume (mL)</t>
+  </si>
+  <si>
+    <t>50% Glutaraldehyde</t>
+  </si>
+  <si>
+    <t>https://www.emsdiasum.com/aqueous-glutaraldehyde-em-grade-50-10ml</t>
+  </si>
+  <si>
+    <t>https://www.emsdiasum.com/aqueous-glutaraldehyde-em-grade-25-10ml</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/whatman-binder-free-glass-microfiber-filters-gf-f-circles/0987464?crossRef=1825025&amp;searchHijack=true&amp;searchTerm=1825025&amp;searchType=RAPID&amp;matchedCatNo=1825025</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/filter-holder-10-pk-1/NC1754672?searchHijack=true&amp;searchTerm=NC1754672&amp;searchType=RAPID&amp;matchedCatNo=NC1754672</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/sterile-syringes-48/14817182?searchHijack=true&amp;searchTerm=14-817-182&amp;searchType=RAPID&amp;matchedCatNo=14-817-182</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/nunc-15ml-50ml-conical-sterile-polypropylene-centrifuge-tubes/12565269#?keyword=12-565-269</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/nunc-15ml-50ml-conical-sterile-polypropylene-centrifuge-tubes/12565271#?keyword=12-565-271</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/isopore-membrane-filters-0-2-m/GTTP02500?searchHijack=true&amp;searchTerm=GTTP02500&amp;searchType=RAPID&amp;matchedCatNo=GTTP02500</t>
+  </si>
+  <si>
+    <t>https://www.qecusa.com/instantsearch/result/?q=1122-40ml</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/fisherbrand-amber-hdpe-wide-mouth-bottles-5/0300753</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/fisherbrand-amber-hdpe-wide-mouth-bottles-5/0300752</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/fisherbrand-externally-internally-threaded-cryogenic-storage-vials-10/1050027#?keyword=10-500-26</t>
+  </si>
+  <si>
+    <t>10-500-27</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/sterile-syringes-48/14817113#?keyword=14-817-113</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/emd-millipore-sterivex-sterile-pressure-driven-devices-12/SVGP01015#?keyword=SVGP01050</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/nalgene-wide-mouth-lab-quality-hdpe-bottles-7/028935D#?keyword=02-893-5D</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/44525-PV?SID=srch-hj-44525-PV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +291,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -277,36 +354,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D84ADCA-A79A-4DD3-9600-1C6BD193C536}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,40 +734,40 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -702,19 +783,22 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>D2/E2</f>
         <v>2.17</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>G2*F2</f>
         <v>8.68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -730,19 +814,22 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F15" si="0">D3/E3</f>
         <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H15" si="1">G3*F3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -758,19 +845,22 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>1.57</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f t="shared" si="1"/>
         <v>1.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -786,19 +876,22 @@
       <c r="E5">
         <v>500</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0.81799999999999995</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>3.2719999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -814,19 +907,22 @@
       <c r="E6">
         <v>300</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G6">
         <v>13</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -842,19 +938,22 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>1.869</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>3.738</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -870,19 +969,22 @@
       <c r="E8">
         <v>72</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>1.3666666666666667</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>2.7333333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -898,19 +1000,22 @@
       <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>6.541666666666667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>6.541666666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -926,47 +1031,53 @@
       <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>4.3583333333333334</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>8.7166666666666668</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="2">
         <v>104.9</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>1.0490000000000002</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>1.0490000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -982,19 +1093,22 @@
       <c r="E12">
         <v>50</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>0.81900000000000006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>0.81900000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1010,89 +1124,156 @@
       <c r="E13">
         <v>50</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>8.1311999999999998</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>8.1311999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="2">
         <v>162.80000000000001</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>13.566666666666668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>13.566666666666668</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="D15" s="2">
         <v>279.8</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>2.798</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>2.798</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="10">
         <f>SUM(H2:H15)</f>
         <v>81.215533333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>9.75</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>16300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" display="https://www.fishersci.com/shop/products/fisherbrand-amber-hdpe-wide-mouth-bottles-5/0300753" xr:uid="{91FA439B-F39D-472F-91BB-A45CAA9EA646}"/>
     <hyperlink ref="B10" r:id="rId2" display="https://www.fishersci.com/shop/products/fisherbrand-amber-hdpe-wide-mouth-bottles-5/0300752" xr:uid="{9E753315-0EA8-4445-BDAA-D48B34473F00}"/>
+    <hyperlink ref="I13" r:id="rId3" location="?keyword=SVGP01050" xr:uid="{B2CCEC64-C467-48DF-84DD-6D86BAF33037}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>